--- a/dfResult_30.xlsx
+++ b/dfResult_30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Islam\OneDrive\Documents\GitHub\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F3E12F-76B6-4032-B86F-DCA73EF7CDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CA8CEB-188B-4ED3-BB75-6F71C693750A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,6 +62,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,11 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,13 +425,15 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D9"/>
+      <selection activeCell="B2" sqref="B2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -448,13 +454,13 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2.60306391865015E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>3.0198760330677028</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>3.0499285086989398</v>
       </c>
     </row>
@@ -462,13 +468,13 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2.64842621982097E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>3.0320718884468079</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>3.0609937384724621</v>
       </c>
     </row>
@@ -476,13 +482,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.5860927999019599E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>2.991928905248642</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>3.0035689473152161</v>
       </c>
     </row>
@@ -490,13 +496,13 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2.6008205488324099E-2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>3.0488388612866402</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>3.0754216015338902</v>
       </c>
     </row>
@@ -504,13 +510,13 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2.6401709765195801E-2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>3.0406216159462929</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>3.0717253684997559</v>
       </c>
     </row>
@@ -518,13 +524,13 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>2.62767449021339E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>3.04090604186058</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>3.067405521869659</v>
       </c>
     </row>
@@ -532,13 +538,13 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>2.5627998635172799E-2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>3.042842261493206</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>3.0565323308110242</v>
       </c>
     </row>
@@ -546,18 +552,18 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>2.6344195008277799E-2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>3.044230118393898</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>3.0782399699091911</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>